--- a/PVB Stage Applicatie/App_Data/ExcelTemplates/StagiairInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/ExcelTemplates/StagiairInvoegen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Voornaam</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>StudentNummer</t>
+  </si>
+  <si>
+    <t>Opleiding</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,18 +106,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -420,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +456,7 @@
     <col min="10" max="10" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -472,9 +487,13 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q8alW2OR+AkF5PxWcdi7NS4be4P3pIl9FKQLvvQjZn371CJl5A+LdRFFM1J85H/111Sm/+geK1Jf8t/C5gnKcQ==" saltValue="caDUsOaY2JEgkcWW3sdK4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:J999" name="Range1"/>
   </protectedRanges>
